--- a/Statistics/Day7-CorrelationClassExample.xlsx
+++ b/Statistics/Day7-CorrelationClassExample.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marshmerry/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyla\OneDrive\Desktop\SkyVale_Repo\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E36CD80-3D97-1545-A36C-8FB59B008EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B8372-83DA-4175-86E8-3FB045A8F1B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="30820" windowHeight="17780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -720,8 +720,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1882,22 +1883,22 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>361</v>
       </c>
@@ -1934,7 +1935,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>270</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>277</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>124</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>35</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2005,7 +2006,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -2018,7 +2019,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -2031,7 +2032,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="G11" s="15" t="s">
@@ -2040,7 +2041,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="9"/>
       <c r="G12" s="17" t="s">
@@ -2049,7 +2050,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
     </row>
@@ -2067,18 +2068,18 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2094,7 +2095,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>75</v>
       </c>
@@ -2107,7 +2108,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>120</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -2127,7 +2128,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>35</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>150</v>
       </c>
@@ -2162,11 +2163,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
     </row>
